--- a/Trabalho 9/vetor_v0.xlsx
+++ b/Trabalho 9/vetor_v0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Engenharia de Computação\Disco virtual\IX Período\Inteligência Artificial\2019_1\Trabalhos\Trabalho 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908A178-D85E-4006-9DEC-8911EFF4BCDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CA02E-DDE2-4BAC-9A80-8D776D5CFB3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{4E5E1F38-C2B0-4912-BF10-B3D09E4F15DC}"/>
   </bookViews>
@@ -381,64 +381,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.26060584762581962</v>
+        <v>-0.83220258978162365</v>
       </c>
       <c r="B1">
-        <v>-1.0436584658161134</v>
+        <v>-0.59273180994130559</v>
       </c>
       <c r="C1">
-        <v>-0.30330059714392726</v>
+        <v>-0.13660225821495697</v>
       </c>
       <c r="D1">
-        <v>0.65344940138445173</v>
+        <v>1.7626164972328577</v>
       </c>
       <c r="E1">
-        <v>0.1144092210866743</v>
+        <v>-0.88187972386906877</v>
       </c>
       <c r="F1">
-        <v>2.0894284377855916E-2</v>
+        <v>-1.4814928213055913</v>
       </c>
       <c r="G1">
-        <v>-0.46616282101141926</v>
+        <v>-0.84511448157505309</v>
       </c>
       <c r="H1">
-        <v>-0.24743359665265766</v>
+        <v>-1.0336560744520299E-2</v>
       </c>
       <c r="I1">
-        <v>-8.4756296048843674E-2</v>
+        <v>-1.138402979268343</v>
       </c>
       <c r="J1">
-        <v>-6.5552076685160401E-2</v>
+        <v>1.1329531940933046</v>
       </c>
       <c r="K1">
-        <v>-0.13344072900363133</v>
+        <v>-3.2126948486090923</v>
       </c>
       <c r="L1">
-        <v>-0.58860041611818892</v>
+        <v>-1.1657159440420524</v>
       </c>
       <c r="M1">
-        <v>-4.4290350848881166E-2</v>
+        <v>0.62449162865453545</v>
       </c>
       <c r="N1">
-        <v>-0.26641641425762846</v>
+        <v>0.72701611223141205</v>
       </c>
       <c r="O1">
-        <v>-0.53411951537305169</v>
+        <v>1.1191820111917479</v>
       </c>
       <c r="P1">
-        <v>0.27267143966637458</v>
+        <v>-1.26952341971563</v>
       </c>
       <c r="Q1">
-        <v>0.64174470755909141</v>
+        <v>-0.35120103831491178</v>
       </c>
       <c r="R1">
-        <v>-0.4455224396925615</v>
+        <v>1.4198109943453225</v>
       </c>
       <c r="S1">
-        <v>-0.2515625815182117</v>
+        <v>0.67297717331610696</v>
       </c>
       <c r="T1">
-        <v>-1.7423616089675643E-3</v>
+        <v>0.7521028574923101</v>
       </c>
     </row>
   </sheetData>
